--- a/biology/Médecine/Assaf_Harofe/Assaf_Harofe.xlsx
+++ b/biology/Médecine/Assaf_Harofe/Assaf_Harofe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Assaf Harofe (hébreu : אסף הרופא בן ברכיהו Assaf Harofè ben Berekhyahou) également surnommé Assaf Hayarhoni, Rabbenou Assaf ou Assaf le Juif (latin : Assaph Judaeus) dans les textes latins, est un médecin juif de la période post-talmudique. Exerçant en terre d’Israël, il est l’auteur ou co-auteur du Sefer Harefouot (rédigé entre les VIe et Xe siècles), premier manuscrit médical en hébreu qui contient également un serment de bonne conduite médicale similaire à celui d’Hippocrate.
 </t>
@@ -511,9 +523,11 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rien n’est connu de la vie d’Assaf ben Berakhyahou, et son livre pourrait avoir été rédigé entre les VIe et Xe siècles de l’ère chrétienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rien n’est connu de la vie d’Assaf ben Berakhyahou, et son livre pourrait avoir été rédigé entre les VIe et Xe siècles de l’ère chrétienne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom d’Assaf Harofe a été donné à l’hôpital attenant au camp militaire de Tzrifin en 1948. Celui-ci a cependant été renommé hôpital Itzhak Shamir à la date du 4 avril 2017 sur l’intervention expresse du premier ministre Benjamin Netanyahou et, semble-t-il, sans avoir consulté le personnel de l’hôpital[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom d’Assaf Harofe a été donné à l’hôpital attenant au camp militaire de Tzrifin en 1948. Celui-ci a cependant été renommé hôpital Itzhak Shamir à la date du 4 avril 2017 sur l’intervention expresse du premier ministre Benjamin Netanyahou et, semble-t-il, sans avoir consulté le personnel de l’hôpital.
 </t>
         </is>
       </c>
